--- a/管理/素材用エクセル/Enemy_Proto.xlsx
+++ b/管理/素材用エクセル/Enemy_Proto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryose\Desktop\GitHub Repository\LoveBullet\管理\素材用エクセル\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6D0157-0AC3-43D0-AD83-8F420170D7BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA5D8D1D-CAB9-419A-9FD9-DC866630D015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{07171D8B-7989-47A4-AFD7-2D2CE0973B3C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{07171D8B-7989-47A4-AFD7-2D2CE0973B3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Enemy" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="68">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1"/>
@@ -579,7 +579,28 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="良い" xfId="1" builtinId="26"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="21">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1694,13 +1715,13 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A3:B10">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1710,10 +1731,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07AF5627-C990-49D5-A232-F69BD0020EB1}">
-  <dimension ref="A1:O57"/>
+  <dimension ref="A1:P57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1726,9 +1747,10 @@
     <col min="6" max="6" width="18.125" customWidth="1"/>
     <col min="7" max="7" width="18.5" customWidth="1"/>
     <col min="8" max="8" width="17.5" customWidth="1"/>
+    <col min="10" max="10" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -1760,22 +1782,25 @@
         <v>41</v>
       </c>
       <c r="K1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" t="s">
         <v>3</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>19</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>4</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>5</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1821,8 +1846,11 @@
       <c r="O2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="P2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1868,8 +1896,11 @@
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="P3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1915,8 +1946,11 @@
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="P4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1948,7 +1982,7 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1962,8 +1996,11 @@
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="P5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>3</v>
       </c>
@@ -2009,8 +2046,11 @@
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="P6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>4</v>
       </c>
@@ -2056,8 +2096,11 @@
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="P7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>5</v>
       </c>
@@ -2103,8 +2146,11 @@
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="P8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>6</v>
       </c>
@@ -2139,7 +2185,7 @@
         <v>2</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -2150,8 +2196,11 @@
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="P9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>7</v>
       </c>
@@ -2197,33 +2246,36 @@
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="P10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>13</v>
       </c>
@@ -2435,6 +2487,17 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="K3:K64">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3209,77 +3272,77 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A16:O30 B3:O3 B5:P15">
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="15" operator="equal">
       <formula>-1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:G4">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="14" operator="equal">
       <formula>-1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
       <formula>-1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="12" operator="equal">
       <formula>-1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
       <formula>-1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
       <formula>-1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
       <formula>-1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
       <formula>-1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3:P4">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
       <formula>-1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
       <formula>-1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>-1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>-1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>-1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>-1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>-1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/管理/素材用エクセル/Enemy_Proto.xlsx
+++ b/管理/素材用エクセル/Enemy_Proto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryose\Desktop\GitHub Repository\LoveBullet\管理\素材用エクセル\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA5D8D1D-CAB9-419A-9FD9-DC866630D015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{602050EF-CD4F-43C7-8FC3-F5B382F1EC97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{07171D8B-7989-47A4-AFD7-2D2CE0973B3C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{07171D8B-7989-47A4-AFD7-2D2CE0973B3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Enemy" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="70">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1"/>
@@ -428,6 +428,14 @@
   </si>
   <si>
     <t>Floor</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Effect</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -579,7 +587,49 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="良い" xfId="1" builtinId="26"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="30">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -703,6 +753,27 @@
       <fill>
         <patternFill>
           <bgColor theme="6" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1045,7 +1116,7 @@
   <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1715,13 +1786,13 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A3:B10">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="1" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1731,10 +1802,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07AF5627-C990-49D5-A232-F69BD0020EB1}">
-  <dimension ref="A1:P57"/>
+  <dimension ref="A1:R57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1750,7 +1821,7 @@
     <col min="10" max="10" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -1785,22 +1856,28 @@
         <v>6</v>
       </c>
       <c r="L1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N1" t="s">
         <v>3</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>19</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>4</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>5</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1849,8 +1926,14 @@
       <c r="P2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="Q2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1899,8 +1982,14 @@
       <c r="P3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1935,10 +2024,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1949,8 +2038,14 @@
       <c r="P4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1985,10 +2080,10 @@
         <v>1</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1999,8 +2094,14 @@
       <c r="P5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>3</v>
       </c>
@@ -2035,10 +2136,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -2049,8 +2150,14 @@
       <c r="P6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>4</v>
       </c>
@@ -2085,10 +2192,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -2099,8 +2206,14 @@
       <c r="P7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>5</v>
       </c>
@@ -2135,10 +2248,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -2149,8 +2262,14 @@
       <c r="P8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>6</v>
       </c>
@@ -2185,13 +2304,13 @@
         <v>2</v>
       </c>
       <c r="L9">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -2199,8 +2318,14 @@
       <c r="P9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>7</v>
       </c>
@@ -2235,10 +2360,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -2249,33 +2374,39 @@
       <c r="P10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>13</v>
       </c>
@@ -2488,13 +2619,13 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="K3:K64">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="1" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3272,77 +3403,77 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A16:O30 B3:O3 B5:P15">
-    <cfRule type="cellIs" dxfId="17" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="15" operator="equal">
       <formula>-1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:G4">
-    <cfRule type="cellIs" dxfId="16" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="14" operator="equal">
       <formula>-1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="13" operator="equal">
       <formula>-1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="cellIs" dxfId="14" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="12" operator="equal">
       <formula>-1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="11" operator="equal">
       <formula>-1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4">
-    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="10" operator="equal">
       <formula>-1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4">
-    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
       <formula>-1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4">
-    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="8" operator="equal">
       <formula>-1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3:P4">
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
       <formula>-1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4">
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="6" operator="equal">
       <formula>-1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
       <formula>-1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
       <formula>-1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
       <formula>-1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>-1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>-1</formula>
     </cfRule>
   </conditionalFormatting>
